--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -132,150 +132,6 @@
   </si>
   <si>
     <t>Sample.Application.Converters.BoolToYesOrNo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  - The cell where data is bound to.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Binding Mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - OneWay (object to view only) or TwoWay.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Visibility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - True or False, indicating if a table conlumn is visible.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Converter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Full type name for a IValueConverter instance.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Validation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Range address for Excel validation list.</t>
-    </r>
-  </si>
-  <si>
-    <t>An ExcelMvc Table/Form view must be defined with a range named in the format of ExcelMvc.Table.(name)/ExcelMvc.Form.(name). For example, ExcelMvc.Table.Company, ExcelMvc.Form.Company, ExcelMvc.Table.Country,… as shown in this sample.</t>
-  </si>
-  <si>
-    <t>Each row in a view definition range defines a binding with the following pre-defined properties:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Binding Path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Data property path (may contain "." and indexers).</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -573,13 +429,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -589,6 +439,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,13 +459,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>16184</xdr:colOff>
+      <xdr:colOff>16236</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>67556</xdr:rowOff>
     </xdr:to>
@@ -625,13 +476,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16184" y="104775"/>
-          <a:ext cx="10042215" cy="286631"/>
-          <a:chOff x="16184" y="104775"/>
-          <a:chExt cx="10042215" cy="286631"/>
+          <a:off x="16236" y="104775"/>
+          <a:ext cx="7146563" cy="286631"/>
+          <a:chOff x="2911836" y="104775"/>
+          <a:chExt cx="7146563" cy="286631"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="_xll.ExcelMvcRunCommandAction" textlink="">
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="2" name="ShowDialog"/>
           <xdr:cNvSpPr/>
@@ -682,7 +533,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="_xll.ExcelMvcRunCommandAction" textlink="">
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="LoadForbes"/>
           <xdr:cNvSpPr/>
@@ -729,101 +580,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="_xll.ExcelMvcDetach" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="DetachMvc"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1464010" y="104775"/>
-            <a:ext cx="1307345" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Detach ExcelMvc</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="_xll.ExcelMvcAttach" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="AttachMvc"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16184" y="104775"/>
-            <a:ext cx="1307345" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Attach ExcelMvc</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="_xll.ExcelMvcRunCommandAction" textlink="">
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="8" name="ClearForbes"/>
           <xdr:cNvSpPr/>
@@ -881,7 +638,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="_xll.ExcelMvcRunCommandAction" textlink="">
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="StartUpdate"/>
           <xdr:cNvSpPr/>
@@ -932,7 +689,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="_xll.ExcelMvcRunCommandAction" textlink="">
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="11" name="ShowColumn"/>
           <xdr:cNvSpPr/>
@@ -988,6 +745,740 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="3038474"/>
+          <a:ext cx="4448175" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 - Click "Load Forbes" to load Forbes 2000 from Forbes.csv file.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 2 - Click "Clear All" to cleal all tables.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3 - Click on a row on the Company table to see the Company form updated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 4 - Edit a row on the Company table to see the changes being replicated on the Company form or edit the details on the Company form to see the changes being</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>replicated to the Company table.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 5 - Click "Start Update" to see real-time asychoronous update.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 6 - Click "Show Dialog" to  see the company table being displayed in a WPF form using the same underlying view model. A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> WPF form can be shown as either a modal window or a floating window. See sample code.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276724" y="114300"/>
+          <a:ext cx="5467351" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>These two tables will be loaded when "Load All" is  excuted. They are referenced from other tables as Excel validation lists</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4752975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="6991350"/>
+          <a:ext cx="7581900" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExcelMvc  tables/fors view must be defined within ranges named in the format of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>xcelMvc.Table.ABC or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExcelMvc.Form.XYZ. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> They be can defined in anywhere in a workbook.  See ExcelMvc.Table.Company etc on the left.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Each row in a view definition range defines a binding with the following pre-defined properties:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data Cell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  - The cell where data is bound to.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Binding Path</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - Data property path (may contain "." and indexers).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Binding Mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - OneWay (object to view only, readonly) or TwoWay.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Visibility</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - True or False, indicating if a table conlumn is visible.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Converter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - Full type name for an IValueConverter instance.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Validation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - Range address for Excel validation list.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1285,7 +1776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1308,14 +1799,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
@@ -1338,14 +1829,14 @@
       <c r="AC1" s="23"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -1368,14 +1859,14 @@
       <c r="AC2" s="23"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -1617,7 +2108,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1627,8 +2118,9 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1638,8 +2130,9 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1649,8 +2142,9 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1660,8 +2154,9 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1671,8 +2166,9 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AB21" s="13"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1682,8 +2178,9 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AB22" s="13"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1694,7 +2191,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1705,7 +2202,7 @@
       <c r="H24" s="22"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1716,7 +2213,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1727,7 +2224,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1738,7 +2235,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1749,7 +2246,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1760,7 +2257,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1771,7 +2268,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1782,7 +2279,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -29228,7 +29725,6 @@
       <c r="I2526" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{B7AF5582-9E40-488B-A8A9-B42B79388359}">
       <pane ySplit="9" topLeftCell="A2508" activePane="bottomLeft" state="frozen"/>
@@ -29237,9 +29733,6 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -29248,37 +29741,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29289,22 +29787,21 @@
     <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="7" customWidth="1"/>
     <col min="6" max="6" width="72" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="63.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="35.28515625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="11.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -29323,12 +29820,9 @@
       <c r="F2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="str">
         <f ca="1">CELL("address",Forbes!B6)</f>
         <v>[Forbes2000.xlsx]Forbes!$B$6</v>
@@ -29344,10 +29838,9 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="str">
         <f ca="1">CELL("address",Forbes!C6)</f>
         <v>[Forbes2000.xlsx]Forbes!$C$6</v>
@@ -29366,10 +29859,9 @@
         <f ca="1">CONCATENATE(CELL("address",References!B2), ":", CELL("address",References!B100))</f>
         <v>[Forbes2000.xlsx]References!$B$2:[Forbes2000.xlsx]References!$B$100</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="str">
         <f ca="1">CELL("address",Forbes!D6)</f>
         <v>[Forbes2000.xlsx]Forbes!$D$6</v>
@@ -29388,10 +29880,9 @@
         <f ca="1">CONCATENATE(CELL("address",References!A2), ":", CELL("address",References!A100))</f>
         <v>[Forbes2000.xlsx]References!$A$2:[Forbes2000.xlsx]References!$A$100</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="str">
         <f ca="1">CELL("address",Forbes!E6)</f>
         <v>[Forbes2000.xlsx]Forbes!$E$6</v>
@@ -29407,9 +29898,8 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f ca="1">CELL("address",Forbes!F6)</f>
         <v>[Forbes2000.xlsx]Forbes!$F$6</v>
@@ -29425,12 +29915,9 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="str">
         <f ca="1">CELL("address",Forbes!G6)</f>
         <v>[Forbes2000.xlsx]Forbes!$G$6</v>
@@ -29446,10 +29933,9 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="str">
         <f ca="1">CELL("address",Forbes!H6)</f>
         <v>[Forbes2000.xlsx]Forbes!$H$6</v>
@@ -29465,12 +29951,9 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="str">
         <f ca="1">CELL("address",Forbes!I6)</f>
         <v>[Forbes2000.xlsx]Forbes!$I$6</v>
@@ -29486,12 +29969,9 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="str">
         <f ca="1">CELL("address",Forbes!A6)</f>
         <v>[Forbes2000.xlsx]Forbes!$A$6</v>
@@ -29509,71 +29989,56 @@
         <v>32</v>
       </c>
       <c r="F11" s="30"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="28"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="28"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="28"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="28"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
@@ -29582,10 +30047,9 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
@@ -29604,12 +30068,11 @@
       <c r="F19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD7)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$7</v>
@@ -29623,9 +30086,8 @@
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD8)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$8</v>
@@ -29642,10 +30104,9 @@
         <f ca="1">CONCATENATE(CELL("address",References!B2), ":", CELL("address",References!B100))</f>
         <v>[Forbes2000.xlsx]References!$B$2:[Forbes2000.xlsx]References!$B$100</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD9)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$9</v>
@@ -29662,10 +30123,9 @@
         <f ca="1">CONCATENATE(CELL("address",References!A2), ":", CELL("address",References!A100))</f>
         <v>[Forbes2000.xlsx]References!$A$2:[Forbes2000.xlsx]References!$A$100</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD10)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$10</v>
@@ -29679,9 +30139,8 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD11)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$11</v>
@@ -29695,9 +30154,8 @@
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD12)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$12</v>
@@ -29711,9 +30169,8 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD13)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$13</v>
@@ -29727,9 +30184,8 @@
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="str">
         <f ca="1">CELL("address", Forbes!AD14)</f>
         <v>[Forbes2000.xlsx]Forbes!$AD$14</v>
@@ -29743,76 +30199,69 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -29824,7 +30273,7 @@
       </c>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f ca="1">CELL("address",References!A2)</f>
         <v>[Forbes2000.xlsx]References!$A$2</v>
@@ -29837,13 +30286,13 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -29855,7 +30304,7 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f ca="1">CELL("address",References!B2)</f>
         <v>[Forbes2000.xlsx]References!$B$2</v>
@@ -29872,10 +30321,12 @@
       <c r="E50" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465"/>
+    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Forbes" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="3" r:id="rId2"/>
     <sheet name="ExcelMvc" sheetId="2" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Forbes!$B$5:$I$5</definedName>
@@ -141,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Blue]#,##0.00;[Red]\-#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +194,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -452,6 +465,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,6 +1513,393 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ShapeButton"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="228600"/>
+          <a:ext cx="914400" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Shape</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="FormButton" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="FormCheckBox" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Checkbox</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="200025"/>
+          <a:ext cx="2828925" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> controls are currently not supported.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="10" name="Group 9"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="228600" y="1962150"/>
+              <a:ext cx="1447800" cy="257175"/>
+              <a:chOff x="304800" y="1876425"/>
+              <a:chExt cx="1447800" cy="257175"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4104" name="FormOptionButtonYes" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s4104"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="304800" y="1876425"/>
+                <a:ext cx="914400" cy="228600"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma"/>
+                    <a:ea typeface="Tahoma"/>
+                    <a:cs typeface="Tahoma"/>
+                  </a:rPr>
+                  <a:t>Yes</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4105" name="FormOptionButtonNo" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s4105"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="857250" y="1876425"/>
+                <a:ext cx="895350" cy="257175"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma"/>
+                    <a:ea typeface="Tahoma"/>
+                    <a:cs typeface="Tahoma"/>
+                  </a:rPr>
+                  <a:t>No</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1771,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AE2526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -29741,6 +30157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29773,10 +30190,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30329,4 +30747,118 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId4" name="FormButton">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId5" name="FormCheckBox">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4104" r:id="rId6" name="FormOptionButtonYes">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4105" r:id="rId7" name="FormOptionButtonNo">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465" activeTab="3"/>
+    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Forbes" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="3" r:id="rId2"/>
     <sheet name="ExcelMvc" sheetId="2" r:id="rId3"/>
-    <sheet name="Test" sheetId="4" r:id="rId4"/>
+    <sheet name="Tests" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Forbes!$B$5:$I$5</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -133,6 +133,33 @@
   </si>
   <si>
     <t>Sample.Application.Converters.BoolToYesOrNo</t>
+  </si>
+  <si>
+    <t>Australian Cities</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Adaleidi</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
   </si>
 </sst>
 </file>
@@ -471,16 +498,44 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$H$8" fmlaRange="$J$2:$J$9" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="$H$10" max="30000" page="10"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="16" fmlaLink="$H$2" fmlaRange="$J$2:$J$9" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1635,6 +1690,289 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153276" y="19050"/>
+          <a:ext cx="4581524" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> commands to see they are hooked to their view model.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> controls are currently not supported. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExcelMvc uses 0 based ListIndex.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4104" name="FormOptionButtonYes" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4105" name="FormOptionButtonNo" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1696,202 +2034,368 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="200025"/>
-          <a:ext cx="2828925" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OLE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> controls are currently not supported.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4108" name="Group Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4108"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Group Box 12</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4109" name="FormOptionButtonMale" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4109"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4110" name="FormOptionButtonFemale" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4110"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4111" name="Group Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4111"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Group Box 12</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4112" name="FormListBox" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4112"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4114" name="FormDropDown" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4114"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="10" name="Group 9"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4115" name="FormSpinner" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4115"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="228600" y="1962150"/>
-              <a:ext cx="1447800" cy="257175"/>
-              <a:chOff x="304800" y="1876425"/>
-              <a:chExt cx="1447800" cy="257175"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="4104" name="FormOptionButtonYes" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s4104"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="304800" y="1876425"/>
-                <a:ext cx="914400" cy="228600"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Tahoma"/>
-                    <a:ea typeface="Tahoma"/>
-                    <a:cs typeface="Tahoma"/>
-                  </a:rPr>
-                  <a:t>Yes</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="4105" name="FormOptionButtonNo" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s4105"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="857250" y="1876425"/>
-                <a:ext cx="895350" cy="257175"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Tahoma"/>
-                    <a:ea typeface="Tahoma"/>
-                    <a:cs typeface="Tahoma"/>
-                  </a:rPr>
-                  <a:t>No</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
@@ -2190,7 +2694,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AE2526"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -30141,6 +30645,7 @@
       <c r="I2526" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{B7AF5582-9E40-488B-A8A9-B42B79388359}">
       <pane ySplit="9" topLeftCell="A2508" activePane="bottomLeft" state="frozen"/>
@@ -30752,15 +31257,73 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2"/>
+  <dimension ref="H1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30820,15 +31383,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -30842,15 +31405,169 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4108" r:id="rId8" name="Group Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4109" r:id="rId9" name="FormOptionButtonMale">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4110" r:id="rId10" name="FormOptionButtonFemale">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4111" r:id="rId11" name="Group Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4112" r:id="rId12" name="FormListBox">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4114" r:id="rId13" name="FormDropDown">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4115" r:id="rId14" name="FormSpinner">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -1194,8 +1194,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4752975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1205,7 +1205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5067300" y="6991350"/>
-          <a:ext cx="7581900" cy="2105025"/>
+          <a:ext cx="7581900" cy="2352675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,7 +1249,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ExcelMvc  tables/fors view must be defined within ranges named in the format of</a:t>
+            <a:t>ExcelMvc  tables</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>forms must be defined within ranges named in the format of</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1297,7 +1321,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ExcelMvc.Form.XYZ. </a:t>
+            <a:t>ExcelMvc.Form.XYZ respectively. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1309,7 +1333,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> They be can defined in anywhere in a workbook.  See ExcelMvc.Table.Company etc on the left.</a:t>
+            <a:t> They can be defined </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>anywhere</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in  the workbook. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1555,6 +1603,15 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
               <a:srgbClr val="C00000"/>
@@ -30698,8 +30755,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -523,11 +523,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,7 +568,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="ShowDialog"/>
+          <xdr:cNvPr id="2" name="ExcelMvc.ShowDialog"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -619,7 +619,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="LoadForbes"/>
+          <xdr:cNvPr id="6" name="ExcelMvc.LoadForbes"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -666,7 +666,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="ClearForbes"/>
+          <xdr:cNvPr id="8" name="ExcelMvc.ClearForbes"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -724,7 +724,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="StartUpdate"/>
+          <xdr:cNvPr id="10" name="ExcelMvc.StartUpdate"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -775,7 +775,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="ShowColumn"/>
+          <xdr:cNvPr id="11" name="ExcelMvc.ShowColumn"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1642,7 +1642,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ShapeButton"/>
+        <xdr:cNvPr id="2" name="ExcelMvc.ShapeButton"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1705,7 +1705,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="FormButton" hidden="1">
+            <xdr:cNvPr id="4097" name="ExcelMvc.FormButton" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
@@ -1902,6 +1902,31 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>All command names must be prefixed with "ExcelMvc.".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-AU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1925,7 +1950,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4104" name="FormOptionButtonYes" hidden="1">
+            <xdr:cNvPr id="4104" name="ExcelMvc.FormOptionButtonYes" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4104"/>
@@ -1986,7 +2011,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4105" name="FormOptionButtonNo" hidden="1">
+            <xdr:cNvPr id="4105" name="ExcelMvc.FormOptionButtonNo" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4105"/>
@@ -2047,7 +2072,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4099" name="FormCheckBox" hidden="1">
+            <xdr:cNvPr id="4099" name="ExcelMvc.FormCheckBox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4099"/>
@@ -2169,7 +2194,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4109" name="FormOptionButtonMale" hidden="1">
+            <xdr:cNvPr id="4109" name="ExcelMvc.FormOptionButtonMale" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4109"/>
@@ -2230,7 +2255,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4110" name="FormOptionButtonFemale" hidden="1">
+            <xdr:cNvPr id="4110" name="ExcelMvc.FormOptionButtonFemale" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4110"/>
@@ -2352,7 +2377,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4112" name="FormListBox" hidden="1">
+            <xdr:cNvPr id="4112" name="ExcelMvc.FormListBox" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4112"/>
@@ -2393,7 +2418,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4114" name="FormDropDown" hidden="1">
+            <xdr:cNvPr id="4114" name="ExcelMvc.FormDropDown" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4114"/>
@@ -2434,7 +2459,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4115" name="FormSpinner" hidden="1">
+            <xdr:cNvPr id="4115" name="ExcelMvc.FormSpinner" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4115"/>
@@ -30755,8 +30780,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31317,7 +31342,7 @@
   <dimension ref="H1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31391,7 +31416,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4097" r:id="rId4" name="FormButton">
+            <control shapeId="4097" r:id="rId4" name="ExcelMvc.FormButton">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -31413,7 +31438,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4099" r:id="rId5" name="FormCheckBox">
+            <control shapeId="4099" r:id="rId5" name="ExcelMvc.FormCheckBox">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31435,7 +31460,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4104" r:id="rId6" name="FormOptionButtonYes">
+            <control shapeId="4104" r:id="rId6" name="ExcelMvc.FormOptionButtonYes">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31457,7 +31482,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4105" r:id="rId7" name="FormOptionButtonNo">
+            <control shapeId="4105" r:id="rId7" name="ExcelMvc.FormOptionButtonNo">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31501,7 +31526,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4109" r:id="rId9" name="FormOptionButtonMale">
+            <control shapeId="4109" r:id="rId9" name="ExcelMvc.FormOptionButtonMale">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31523,7 +31548,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4110" r:id="rId10" name="FormOptionButtonFemale">
+            <control shapeId="4110" r:id="rId10" name="ExcelMvc.FormOptionButtonFemale">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31567,7 +31592,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4112" r:id="rId12" name="FormListBox">
+            <control shapeId="4112" r:id="rId12" name="ExcelMvc.FormListBox">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31589,7 +31614,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4114" r:id="rId13" name="FormDropDown">
+            <control shapeId="4114" r:id="rId13" name="ExcelMvc.FormDropDown">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31611,7 +31636,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4115" r:id="rId14" name="FormSpinner">
+            <control shapeId="4115" r:id="rId14" name="ExcelMvc.FormSpinner">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,7 +860,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="ExcelMvc.ShowColumn"/>
+          <xdr:cNvPr id="11" name="ExcelMvc.ShowIndustry"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1492,7 +1492,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="ExcelMvc.TransposedShowDialog"/>
+          <xdr:cNvPr id="4" name="ExcelMvc.ShowDialog"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1543,7 +1543,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="ExcelMvc.TransposedLoadForbes"/>
+          <xdr:cNvPr id="5" name="ExcelMvc.LoadForbes"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1590,7 +1590,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="ExcelMvc.TransposedClearForbes"/>
+          <xdr:cNvPr id="6" name="ExcelMvc.ClearForbes"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1648,7 +1648,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="ExcelMvc.TransposedStartUpdate"/>
+          <xdr:cNvPr id="7" name="ExcelMvc.StartUpdate"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1699,7 +1699,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="ExcelMvc.TransposedShowRow"/>
+          <xdr:cNvPr id="8" name="ExcelMvc.ShowIndustry"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2401,7 +2401,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2646,7 +2646,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2707,7 +2707,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2768,7 +2768,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2829,7 +2829,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2890,7 +2890,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2951,7 +2951,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3012,7 +3012,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3157,9 +3157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3197,7 +3197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3269,7 +3269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3448,10 +3448,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
@@ -31417,10 +31417,10 @@
   <dimension ref="A5:CRZ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="52" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="52"/>
@@ -54261,7 +54261,7 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -54294,7 +54294,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="7" customWidth="1"/>
@@ -55292,7 +55292,7 @@
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>

--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -18,6 +18,7 @@
     <definedName name="ExcelMvc.Form.Company">ExcelMvc!$A$35:$F$49</definedName>
     <definedName name="ExcelMvc.Form.CompanyTransposed">ExcelMvc!$A$54:$F$62</definedName>
     <definedName name="ExcelMvc.Table.Company">ExcelMvc!$A$2:$F$16</definedName>
+    <definedName name="ExcelMvc.Table.CompanyFilters">ExcelMvc!$A$76:$D$77</definedName>
     <definedName name="ExcelMvc.Table.CompanyTransposed">ExcelMvc!$A$21:$F$30</definedName>
     <definedName name="ExcelMvc.Table.Country">ExcelMvc!$A$67:$D$68</definedName>
     <definedName name="ExcelMvc.Table.Industry">ExcelMvc!$A$71:$D$72</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -181,6 +182,18 @@
   </si>
   <si>
     <t>ExcelMvc.Form.CompanyTransposed</t>
+  </si>
+  <si>
+    <t>ExcelMvc.Table.CompanyFilters</t>
+  </si>
+  <si>
+    <t>NameLike</t>
+  </si>
+  <si>
+    <t>(End of Company Filter table)</t>
+  </si>
+  <si>
+    <t>Company Filter  Tabele (NameLike)</t>
   </si>
 </sst>
 </file>
@@ -1762,16 +1775,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1780,8 +1793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276724" y="114300"/>
-          <a:ext cx="5467351" cy="600075"/>
+          <a:off x="7067549" y="38100"/>
+          <a:ext cx="5467351" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,7 +1838,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>These two tables will be loaded when "Load All" is  excuted. They are referenced from other tables as Excel validation lists</a:t>
+            <a:t>The Country Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and Industry Table are </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>loaded  when  the "Load All" command is  excuted. They are referenced from other tables as Excel validation lists</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
@@ -1843,6 +1880,60 @@
             <a:rPr lang="en-AU"/>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Country Filter Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is used to filter the companys in the Load All process. Use * to include all.  When the book is loaded,  the values in the table will be copied to the  CompanyFilter objects.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-AU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -31417,7 +31508,7 @@
   <dimension ref="A5:CRZ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54255,16 +54346,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
@@ -54276,7 +54368,14 @@
       <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48"/>
+      <c r="C1" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="48" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54290,8 +54389,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55269,11 +55368,40 @@
       </c>
       <c r="D72" s="9"/>
     </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="str">
+        <f ca="1">CELL("address",References!C2)</f>
+        <v>[Forbes2000.xlsx]References!$C$2</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="G2:G5"/>
   </mergeCells>

--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -190,10 +190,16 @@
     <t>NameLike</t>
   </si>
   <si>
-    <t>(End of Company Filter table)</t>
+    <t>Company Filter  Tabele (NameLike)</t>
   </si>
   <si>
-    <t>Company Filter  Tabele (NameLike)</t>
+    <t>OneWayToSource</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(Specify up to 10 filters, * to load all)</t>
   </si>
 </sst>
 </file>
@@ -3539,7 +3545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54349,7 +54355,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54369,12 +54375,17 @@
         <v>13</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -54390,7 +54401,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55394,7 +55405,7 @@
         <v>49</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D77" s="9"/>
     </row>

--- a/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -17,6 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Forbes!$B$5:$I$5</definedName>
     <definedName name="ExcelMvc.Form.Company">ExcelMvc!$A$35:$F$49</definedName>
     <definedName name="ExcelMvc.Form.CompanyTransposed">ExcelMvc!$A$54:$F$62</definedName>
+    <definedName name="ExcelMvc.Form.Settings">ExcelMvc!$A$80:$D$81</definedName>
     <definedName name="ExcelMvc.Table.Company">ExcelMvc!$A$2:$F$16</definedName>
     <definedName name="ExcelMvc.Table.CompanyFilters">ExcelMvc!$A$76:$D$77</definedName>
     <definedName name="ExcelMvc.Table.CompanyTransposed">ExcelMvc!$A$21:$F$30</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -190,16 +191,25 @@
     <t>NameLike</t>
   </si>
   <si>
-    <t>Company Filter  Tabele (NameLike)</t>
-  </si>
-  <si>
     <t>OneWayToSource</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>(Specify up to 10 filters, * to load all)</t>
+    <t>(Specify up to 10 "OR" filters, * to load all)</t>
+  </si>
+  <si>
+    <t>Company Filter  Table (NameLike)</t>
+  </si>
+  <si>
+    <t>ExcelMvc.Form.Settings</t>
+  </si>
+  <si>
+    <t>UpdateIntervalSeconds</t>
+  </si>
+  <si>
+    <t>Update Interval Seconds</t>
   </si>
 </sst>
 </file>
@@ -646,8 +656,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>16236</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231540</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -657,282 +667,364 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>67556</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ExcelMvc.ShowDialog"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5841765" y="104775"/>
+          <a:ext cx="1321034" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Show</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
+            <a:t> Dialog</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16236</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>549376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ExcelMvc.LoadForbes"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="16236" y="104775"/>
-          <a:ext cx="7146563" cy="286631"/>
-          <a:chOff x="2911836" y="104775"/>
-          <a:chExt cx="7146563" cy="286631"/>
+          <a:ext cx="1314190" cy="286631"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="ExcelMvc.ShowDialog"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8737365" y="104775"/>
-            <a:ext cx="1321034" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Show</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-              <a:t> Dialog</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="ExcelMvc.LoadForbes"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2911836" y="104775"/>
-            <a:ext cx="1314190" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Load  Forbes 2000</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="ExcelMvc.ClearForbes"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4366508" y="104775"/>
-            <a:ext cx="1314190" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Clear</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-              <a:t> All</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="ExcelMvc.StartUpdate"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7275852" y="104775"/>
-            <a:ext cx="1321034" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-              <a:t>Start  Update</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="ExcelMvc.ShowIndustry"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5821180" y="104775"/>
-            <a:ext cx="1314190" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Hide Industry</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Load  Forbes 2000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>689858</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>70473</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ExcelMvc.ClearForbes"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470908" y="104775"/>
+          <a:ext cx="1314190" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Clear</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> All</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1665627</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91061</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ExcelMvc.StartUpdate"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380252" y="104775"/>
+          <a:ext cx="1321034" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Start  Update</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210955</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1525145</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ExcelMvc.ShowIndustry"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2925580" y="104775"/>
+          <a:ext cx="1314190" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Hide Industry</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1485,8 +1577,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62904</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -1496,282 +1588,364 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10406</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ExcelMvc.ShowDialog"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5863629" y="104775"/>
+          <a:ext cx="1321034" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Show</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
+            <a:t> Dialog</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428365</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ExcelMvc.LoadForbes"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="38100" y="104775"/>
-          <a:ext cx="7146563" cy="286631"/>
-          <a:chOff x="2911836" y="104775"/>
-          <a:chExt cx="7146563" cy="286631"/>
+          <a:ext cx="1314190" cy="286631"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="ExcelMvc.ShowDialog"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8737365" y="104775"/>
-            <a:ext cx="1321034" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Show</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-              <a:t> Dialog</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="ExcelMvc.LoadForbes"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2911836" y="104775"/>
-            <a:ext cx="1314190" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Load  Forbes 2000</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="ExcelMvc.ClearForbes"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4366508" y="104775"/>
-            <a:ext cx="1314190" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Clear</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-              <a:t> All</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="ExcelMvc.StartUpdate"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7275852" y="104775"/>
-            <a:ext cx="1321034" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-              <a:t>Start  Update</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="ExcelMvc.ShowIndustry"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5821180" y="104775"/>
-            <a:ext cx="1314190" cy="286631"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>Hide Industry</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" b="1"/>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Load  Forbes 2000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>568847</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130437</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ExcelMvc.ClearForbes"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1492772" y="104775"/>
+          <a:ext cx="1314190" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Clear</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> All</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125391</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>684425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ExcelMvc.StartUpdate"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4402116" y="104775"/>
+          <a:ext cx="1321034" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Start  Update</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>270919</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1585109</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ExcelMvc.ShowIndustry"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2947444" y="104775"/>
+          <a:ext cx="1314190" cy="286631"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Hide Industry</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1844,7 +2018,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The Country Table</a:t>
+            <a:t>The Country table</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -1856,7 +2030,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> and Industry Table are </a:t>
+            <a:t> and Industry table are </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" b="1" i="0" u="none" strike="noStrike">
@@ -1918,7 +2092,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The Country Filter Table</a:t>
+            <a:t>The Country Filter table</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" b="1" i="0" baseline="0">
@@ -1931,6 +2105,65 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> is used to filter the companys in the Load All process. Use * to include all.  When the book is loaded,  the values in the table will be copied to the  CompanyFilter objects.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-AU" sz="1100" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Settings  form specifies  application settings. Only Update Interval Seconds is demostrated here.</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU">
             <a:solidFill>
@@ -2407,7 +2640,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ExcelMvc.ShapeButton"/>
         <xdr:cNvSpPr/>
@@ -3545,7 +3778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54352,22 +54585,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -54375,17 +54608,25 @@
         <v>13</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="48" t="s">
-        <v>53</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -54400,14 +54641,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="7" customWidth="1"/>
@@ -55405,11 +55646,39 @@
         <v>49</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" s="9"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="str">
+        <f ca="1">CELL("address",References!D14)</f>
+        <v>[Forbes2000.xlsx]References!$D$14</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="8"/>
     </row>
   </sheetData>
@@ -55503,7 +55772,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4097" r:id="rId4" name="ExcelMvc.FormButton">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -55525,7 +55794,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4099" r:id="rId5" name="ExcelMvc.FormCheckBox">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -55547,7 +55816,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4104" r:id="rId6" name="ExcelMvc.FormOptionButtonYes">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -55569,7 +55838,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4105" r:id="rId7" name="ExcelMvc.FormOptionButtonNo">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
@@ -55613,7 +55882,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4109" r:id="rId9" name="ExcelMvc.FormOptionButtonMale">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -55635,7 +55904,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4110" r:id="rId10" name="ExcelMvc.FormOptionButtonFemale">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
@@ -55679,7 +55948,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4112" r:id="rId12" name="ExcelMvc.FormListBox">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
@@ -55701,7 +55970,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4114" r:id="rId13" name="ExcelMvc.FormDropDown">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
@@ -55723,7 +55992,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="4115" r:id="rId14" name="ExcelMvc.FormSpinner">
-              <controlPr defaultSize="0" autoPict="0">
+              <controlPr defaultSize="0" autoPict="0" macro="ExcelMvcRunCommandAction">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
